--- a/SimulationStudyData/Model3/Dataset17_zsim_Run1.xlsx
+++ b/SimulationStudyData/Model3/Dataset17_zsim_Run1.xlsx
@@ -378,7 +378,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -398,7 +398,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -418,12 +418,12 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -433,12 +433,12 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -458,7 +458,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -468,12 +468,12 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -483,12 +483,12 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
@@ -498,7 +498,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
@@ -518,7 +518,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -533,22 +533,22 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
@@ -558,12 +558,12 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -593,12 +593,12 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
@@ -613,12 +613,12 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56">
@@ -643,12 +643,12 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62">
@@ -658,17 +658,17 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66">
@@ -688,7 +688,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -698,7 +698,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -708,7 +708,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -718,7 +718,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76">
@@ -728,7 +728,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78">
@@ -738,7 +738,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -788,7 +788,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90">
@@ -803,27 +803,27 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -833,17 +833,17 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -863,7 +863,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -883,12 +883,12 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -898,7 +898,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -908,7 +908,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -928,7 +928,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -953,7 +953,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -968,7 +968,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126">
@@ -983,12 +983,12 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -998,17 +998,17 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -1018,7 +1018,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -1038,7 +1038,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140">
@@ -1063,7 +1063,7 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145">
@@ -1078,12 +1078,12 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149">
@@ -1128,17 +1128,17 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
@@ -1158,7 +1158,7 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
@@ -1168,7 +1168,7 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
@@ -1178,12 +1178,12 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
@@ -1203,12 +1203,12 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174">
@@ -1248,7 +1248,7 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182">
@@ -1263,12 +1263,12 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
@@ -1278,12 +1278,12 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189">
@@ -1293,32 +1293,32 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
@@ -1328,7 +1328,7 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
@@ -1348,7 +1348,7 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
